--- a/data/long_razon/P19_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P19_1-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-27,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 151,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 13,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 111,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 28,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 109,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 21,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 54,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 48,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 34,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-26,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 39,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 47,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 4,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 42,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,39; 100,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,7; -19,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 29,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 59,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,23; -12,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-37,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-49,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-44,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 6,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 85,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,55; -16,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 22,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,22; 159,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,64; -36,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 97,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -32,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-35,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 29,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 36,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,76; -0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 20,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,45; 97,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,77; -24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 54,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,15; -17,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P19_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P19_1-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.5365699448203382</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3894651024561341</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3027466033703688</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.2053762896258747</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>-0.3871488460627018</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4311491991559426</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.07504816290999898</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.007239492187625552</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>-0.03351012472615341</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.02565828191861267</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.07902724334235586</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.0869472748651942</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2734718403371715</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6376209870421331</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1097948985488533</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5197340928804139</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.6249284774367881</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.08002088198685191</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3011950196037569</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3339369458550439</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.382151404966693</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2722096277454355</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1284871285108503</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.3460124570478891</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.936710860744221</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.04062290701250559</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.054264382757291</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.2573315889355332</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>-0.01455654477058909</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.190233706503016</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.2278617260173399</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.6295735702751925</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.3848056814395852</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4359362217795338</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.4245139354353709</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.2693219496354459</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.3801460172813209</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1544891092974312</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2109475875260923</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1630606697631549</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.3274152568376088</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4445261527380016</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.327960429306364</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2280771202573154</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>0.3514023539672888</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2816923219973586</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.2660932164677157</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.1936303678547099</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.01946588389971201</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1475207659058293</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3723796529236986</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4176977116844993</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>0.0024819998016978</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.09696220043147849</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4598382153303873</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4112071664599294</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>0.1036564874049746</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.04390350955103047</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.378626527696618</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.3514455885455475</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.9577129661866456</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5486698632025153</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.01687789173221972</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1689693066398539</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>0.7126426450545537</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.8935349897736768</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.1549061857186229</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.024468525923619</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>0.6831253736492428</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.5720436455573941</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.1183777795039468</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>-0.001019374207290785</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1033727910694704</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3771590494066505</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3713343319701734</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.07161366184661348</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.2045347264998072</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.9728069522893036</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.5055927509946696</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.06529961054487368</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.1584161331197615</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.6578386401926251</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.4414925468309971</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.0002719442177067999</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4068939442282077</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.00768895073741145</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5308694321287039</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3904137163222257</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.439415237098867</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.4900086579609087</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6183533403111053</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1780060531587026</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.3339704910563169</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.366264360798095</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.5432468264148406</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1931894043307081</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.31274936284151</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9124391203964816</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.1609713799317202</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.3187472652296777</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.07434076915026938</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.589096701517063</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.3701117577319002</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3808278175779721</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>0.0698257464239727</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.058859934451899</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>-0.3338896552637877</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.2427271218936057</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2128363234089066</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1185404222410851</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1856382316166546</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1427282295515266</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.01016012480417191</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.6037359737706663</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.3359508736604426</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.07897150432754063</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>0.08855473481743246</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.3427594349132437</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.2624245280302118</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.1105961824280373</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.03257028390528411</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.08975707564880871</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3189590448279941</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3201510516252927</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.1785912064051453</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.3430861073008256</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.42173046728095</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.214263179665465</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.05489678311568417</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.1741925081504789</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.3365053037933505</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.2243444936032414</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.5505816381525035</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3528747414897203</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.03017030694113138</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.06807776525544475</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>0.1883169432446334</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.9259866935555916</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.2370907134376171</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.09006120297852406</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>0.2676919279280945</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.5495340135687772</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>-0.1709074744136808</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.01974088647988578</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
